--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryChkDtl.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryChkDtl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFE2223-1BC2-4F5F-97BE-48C62ED583BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0BDCF3-D2AD-4B54-9573-69729BD5FB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -281,6 +281,18 @@
   </si>
   <si>
     <t>EntryDate &gt;= ,AND EntryDate &lt;= ,AND Factor =</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findEntryDateRangeFactorCustNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EntryDate &gt;= ,AND EntryDate &lt;= ,AND Factor = , AND CustNo = </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryDate,DtlSeq ASC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1331,11 +1343,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1379,6 +1391,17 @@
         <v>65</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryChkDtl.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryChkDtl.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0BDCF3-D2AD-4B54-9573-69729BD5FB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FB47C6-3419-47C7-B2F8-005F2B18DEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -294,6 +294,42 @@
   <si>
     <t>EntryDate,DtlSeq ASC</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findDtlEntryDate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DtlEntryDateFactor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DtlEntryDate &gt;= ,AND DtlEntryDate &lt;= </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DtlEntryDate &gt;= ,AND DtlEntryDate &lt;= ,AND Factor =</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DtlEntryDate,CustNo,DtlSeq ASC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findDtlEntryDateRangeFactorCustNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DtlEntryDate &gt;= ,AND DtlEntryDate &lt;= ,AND Factor = , AND CustNo = </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DtlEntryDate,DtlSeq ASC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DtlEntryDate,Factor,CustNo,DtlSeq ASC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -457,7 +493,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -482,10 +518,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -498,9 +534,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -512,9 +545,6 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -526,9 +556,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -914,25 +941,25 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="19" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44" style="25" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.88671875" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="17" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44" style="22" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.88671875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.88671875" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="6" t="s">
         <v>36</v>
       </c>
@@ -944,78 +971,78 @@
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="33"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
@@ -1034,296 +1061,296 @@
       <c r="F8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
         <v>8</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="20">
         <v>2</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="23"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="20">
         <v>7</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="23"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="20">
         <v>4</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="23"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="17">
         <v>8</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="17">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="17">
         <v>4</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="G15" s="22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <v>8</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="17">
         <v>16</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="20">
         <v>3</v>
       </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="23"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="17">
         <v>16</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <v>11</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="17">
         <v>8</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19">
+    <row r="20" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
         <v>12</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="23">
         <v>8</v>
       </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="19">
+      <c r="A21" s="17">
         <v>13</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="23">
         <v>6</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19">
+    <row r="22" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
         <v>14</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="23">
         <v>8</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>15</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="23">
         <v>6</v>
       </c>
-      <c r="G23" s="24"/>
+      <c r="G23" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1343,16 +1370,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="92" style="1" customWidth="1"/>
     <col min="3" max="3" width="45.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
@@ -1402,6 +1429,39 @@
         <v>70</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryChkDtl.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryChkDtl.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FB47C6-3419-47C7-B2F8-005F2B18DEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B96433-5340-4750-B36F-73FB8B80D5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -330,6 +326,9 @@
   <si>
     <t>DtlEntryDate,Factor,CustNo,DtlSeq ASC</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -618,9 +617,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -658,9 +657,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -693,26 +692,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -745,26 +727,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -940,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -961,10 +926,10 @@
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
@@ -989,7 +954,7 @@
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>13</v>
@@ -1070,10 +1035,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>23</v>
@@ -1089,10 +1054,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>14</v>
@@ -1108,13 +1073,13 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="20">
         <v>7</v>
@@ -1127,13 +1092,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="20">
         <v>4</v>
@@ -1146,10 +1111,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>23</v>
@@ -1165,13 +1130,13 @@
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>46</v>
       </c>
       <c r="E14" s="17">
         <v>10</v>
@@ -1182,19 +1147,19 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>58</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>59</v>
       </c>
       <c r="E15" s="17">
         <v>4</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1205,7 +1170,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>14</v>
@@ -1222,10 +1187,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>39</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>40</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>14</v>
@@ -1241,10 +1206,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>14</v>
@@ -1261,10 +1226,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>23</v>
@@ -1280,20 +1245,18 @@
         <v>12</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="23">
-        <v>8</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E20" s="23"/>
       <c r="F20" s="25"/>
       <c r="G20" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1301,10 +1264,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="27" t="s">
         <v>26</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>27</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>12</v>
@@ -1320,17 +1283,15 @@
         <v>14</v>
       </c>
       <c r="B22" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>29</v>
-      </c>
       <c r="D22" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="23">
-        <v>8</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E22" s="23"/>
       <c r="F22" s="25"/>
       <c r="G22" s="5"/>
     </row>
@@ -1339,10 +1300,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>30</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>31</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>12</v>
@@ -1372,7 +1333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
@@ -1398,68 +1359,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
